--- a/TestData/LUMA e-commerce Test Plan and Matrix.xlsx
+++ b/TestData/LUMA e-commerce Test Plan and Matrix.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="112">
   <si>
     <t>Module</t>
   </si>
@@ -1492,8 +1492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1504,7 +1504,7 @@
     <col min="4" max="4" width="13.453125" customWidth="1"/>
     <col min="5" max="5" width="10.08984375" customWidth="1"/>
     <col min="6" max="6" width="29.90625" customWidth="1"/>
-    <col min="7" max="7" width="29.7265625" customWidth="1"/>
+    <col min="7" max="7" width="27.90625" customWidth="1"/>
     <col min="8" max="8" width="20.90625" customWidth="1"/>
     <col min="9" max="9" width="23.36328125" customWidth="1"/>
     <col min="10" max="10" width="25.26953125" customWidth="1"/>
@@ -2227,10 +2227,12 @@
       </c>
       <c r="J24" s="12"/>
       <c r="K24" s="12"/>
-      <c r="L24" s="14"/>
+      <c r="L24" s="14" t="s">
+        <v>26</v>
+      </c>
       <c r="M24" s="27"/>
       <c r="N24" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="181.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -2283,10 +2285,12 @@
       </c>
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
-      <c r="L26" s="5"/>
+      <c r="L26" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="M26" s="24"/>
       <c r="N26" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="181.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -2307,7 +2311,9 @@
       <c r="K27" s="15"/>
       <c r="L27" s="20"/>
       <c r="M27" s="20"/>
-      <c r="N27" s="1"/>
+      <c r="N27" s="1" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="I28" s="21"/>
